--- a/image/visionprescription.xlsx
+++ b/image/visionprescription.xlsx
@@ -950,44 +950,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.69921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.15625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.6953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/image/visionprescription.xlsx
+++ b/image/visionprescription.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="255">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -544,10 +544,6 @@
   </si>
   <si>
     <t>VisionPrescription.lensSpecification.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -950,44 +946,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.0078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.69921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.15625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.6953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3022,13 +3018,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3079,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3108,7 +3104,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3137,7 +3133,7 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>97</v>
@@ -3190,7 +3186,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3208,7 +3204,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3219,11 +3215,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3245,10 +3241,10 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>97</v>
@@ -3303,7 +3299,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3332,7 +3328,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3355,17 +3351,17 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3390,60 +3386,60 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3469,16 +3465,16 @@
         <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3506,11 +3502,11 @@
         <v>118</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3527,7 +3523,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>49</v>
@@ -3545,7 +3541,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3556,7 +3552,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3579,19 +3575,19 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3640,7 +3636,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3658,7 +3654,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3669,7 +3665,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3692,17 +3688,17 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3751,7 +3747,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3769,7 +3765,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3780,7 +3776,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3803,19 +3799,19 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3864,7 +3860,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3882,7 +3878,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3893,7 +3889,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3919,14 +3915,14 @@
         <v>165</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -3975,7 +3971,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4004,7 +4000,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4027,13 +4023,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4084,25 +4080,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4113,7 +4109,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4142,7 +4138,7 @@
         <v>95</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>97</v>
@@ -4195,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4213,7 +4209,7 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4224,11 +4220,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4250,10 +4246,10 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>97</v>
@@ -4308,7 +4304,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4337,7 +4333,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4360,17 +4356,17 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4419,7 +4415,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>49</v>
@@ -4437,7 +4433,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4448,7 +4444,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4474,14 +4470,14 @@
         <v>68</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4509,11 +4505,11 @@
         <v>118</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4530,7 +4526,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>49</v>
@@ -4548,7 +4544,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4559,7 +4555,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4582,17 +4578,17 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4641,7 +4637,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4659,7 +4655,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4670,7 +4666,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4693,17 +4689,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4752,7 +4748,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4770,7 +4766,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4781,7 +4777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4804,17 +4800,17 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4863,7 +4859,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4881,7 +4877,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -4892,7 +4888,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4915,17 +4911,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -4974,7 +4970,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -4992,7 +4988,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5003,7 +4999,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5026,17 +5022,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5085,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5103,7 +5099,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5114,7 +5110,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5137,17 +5133,17 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5196,7 +5192,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5214,7 +5210,7 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5225,7 +5221,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5248,17 +5244,17 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5307,7 +5303,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5325,7 +5321,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5336,7 +5332,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5359,17 +5355,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5418,7 +5414,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5436,7 +5432,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
